--- a/doc/凯泰-扭矩仪参数字典20230802.xlsx
+++ b/doc/凯泰-扭矩仪参数字典20230802.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shenggen\torque\Drill\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82544E-E20C-4E4D-858C-8B0DA3923836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CF9BE5-5A95-40EB-95D4-E7FE8EAB0E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A2E4BC5-18DD-41C3-9C98-E226247E2C40}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A2E4BC5-18DD-41C3-9C98-E226247E2C40}"/>
   </bookViews>
   <sheets>
     <sheet name="（74）凯泰-套管扭矩 " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
   <si>
     <t>中文名称</t>
   </si>
@@ -253,9 +253,6 @@
   <si>
     <t>设备参数码</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dan</t>
   </si>
   <si>
     <t>×</t>
@@ -348,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,12 +363,81 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -682,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17E7EB2-595E-402F-83D5-AD76779B1F92}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -829,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -846,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -863,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -931,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -954,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -994,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1011,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1027,8 +1093,8 @@
       <c r="D19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7">
-        <v>20000</v>
+      <c r="E19" s="9">
+        <v>200000</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>9</v>
@@ -1050,8 +1116,8 @@
       <c r="D20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7">
-        <v>20000</v>
+      <c r="E20" s="9">
+        <v>200000</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>9</v>
@@ -1073,8 +1139,8 @@
       <c r="D21" s="7">
         <v>0</v>
       </c>
-      <c r="E21" s="7">
-        <v>20000</v>
+      <c r="E21" s="9">
+        <v>200000</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>9</v>
@@ -1119,8 +1185,8 @@
       <c r="D23" s="7">
         <v>0</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>58</v>
+      <c r="E23" s="7">
+        <v>3600</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>9</v>
@@ -1330,7 +1396,7 @@
       <c r="D36" s="7">
         <v>0</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="9">
         <v>20000</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -1397,7 +1463,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G5" sqref="G5:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1494,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1528,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1545,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1562,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1613,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1653,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1676,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1693,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1709,8 +1775,8 @@
       <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="7">
-        <v>20000</v>
+      <c r="E17" s="9">
+        <v>200000</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>9</v>
@@ -1935,8 +2001,8 @@
       <c r="D31" s="7">
         <v>0</v>
       </c>
-      <c r="E31" s="7">
-        <v>20000</v>
+      <c r="E31" s="9">
+        <v>200000</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>9</v>
